--- a/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_cornstover_Acrylic_300L_FGI.xlsx
+++ b/biorefineries/HP/analyses/full/parameter_distributions/acrylic_acid_product/parameter-distributions_cornstover_Acrylic_300L_FGI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saran\Documents\Academia\repository_clones\Bioindustrial-Park\biorefineries\HP\analyses\full\parameter_distributions\acrylic_acid_product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1379AAC5-58C6-4421-8143-54A0450C741A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B98EEF13-E92B-4089-9607-4218A14165E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,7 +694,7 @@
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1351,8 +1351,8 @@
         <v>22</v>
       </c>
       <c r="G18" s="4">
-        <f>E18*0.08</f>
-        <v>1.6240000000000001E-2</v>
+        <f>E18*0.8</f>
+        <v>0.16240000000000002</v>
       </c>
       <c r="H18" s="4"/>
       <c r="I18" s="4">
@@ -1388,8 +1388,8 @@
         <v>22</v>
       </c>
       <c r="G19" s="4">
-        <f>E19*0.08</f>
-        <v>5.2800000000000004E-4</v>
+        <f>E19*0.8</f>
+        <v>5.28E-3</v>
       </c>
       <c r="H19" s="4"/>
       <c r="I19" s="4">
